--- a/Input_files/Actual_testcases/Kaman/LogixalQABox2/ALL_PAGES/END_TO_END/TC02_Verify_MYACC_RegisteredUser.xlsx
+++ b/Input_files/Actual_testcases/Kaman/LogixalQABox2/ALL_PAGES/END_TO_END/TC02_Verify_MYACC_RegisteredUser.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="64">
   <si>
     <t>TestCase</t>
   </si>
@@ -74,9 +74,6 @@
     <t>MyaccountSection</t>
   </si>
   <si>
-    <t>ProfileSection</t>
-  </si>
-  <si>
     <t>PaymentInfo</t>
   </si>
   <si>
@@ -92,21 +89,9 @@
     <t>Quotes</t>
   </si>
   <si>
-    <t>Purchasing history</t>
-  </si>
-  <si>
-    <t>Quick order</t>
-  </si>
-  <si>
     <t>Accounts</t>
   </si>
   <si>
-    <t>Logout</t>
-  </si>
-  <si>
-    <t>Profile</t>
-  </si>
-  <si>
     <t>Payment Info</t>
   </si>
   <si>
@@ -170,9 +155,6 @@
     <t>LoginButton</t>
   </si>
   <si>
-    <t>PurchasingHistory</t>
-  </si>
-  <si>
     <t>Storerooms</t>
   </si>
   <si>
@@ -207,13 +189,31 @@
   </si>
   <si>
     <t>EnableCertificate_GoTOPage</t>
+  </si>
+  <si>
+    <t>DashboardSection</t>
+  </si>
+  <si>
+    <t>Purchasinghistory</t>
+  </si>
+  <si>
+    <t>ProfileSettings</t>
+  </si>
+  <si>
+    <t>SignOut</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>Profile Settings</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -223,6 +223,19 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -270,12 +283,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -622,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -656,7 +672,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -670,22 +686,22 @@
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -694,22 +710,22 @@
     <row r="5" spans="1:5">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -718,7 +734,7 @@
     <row r="7" spans="1:5">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -727,13 +743,13 @@
     <row r="8" spans="1:5">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E8" s="4"/>
     </row>
@@ -743,10 +759,10 @@
         <v>15</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E9" s="4"/>
     </row>
@@ -759,7 +775,7 @@
         <v>13</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>13</v>
@@ -774,7 +790,7 @@
         <v>14</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>14</v>
@@ -786,17 +802,17 @@
         <v>15</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3"/>
       <c r="B13" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -811,7 +827,7 @@
         <v>17</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>17</v>
@@ -823,10 +839,10 @@
         <v>9</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>18</v>
@@ -838,10 +854,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -851,13 +867,13 @@
         <v>11</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>48</v>
+        <v>58</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -866,13 +882,13 @@
         <v>11</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -881,13 +897,13 @@
         <v>11</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>48</v>
+        <v>22</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -895,14 +911,14 @@
       <c r="B20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>22</v>
+      <c r="C20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -910,14 +926,14 @@
       <c r="B21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>23</v>
+      <c r="C21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -925,14 +941,14 @@
       <c r="B22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>24</v>
+      <c r="C22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -940,14 +956,14 @@
       <c r="B23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>25</v>
+      <c r="C23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -955,14 +971,14 @@
       <c r="B24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>52</v>
+      <c r="C24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -970,14 +986,14 @@
       <c r="B25" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>27</v>
+      <c r="C25" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -986,27 +1002,42 @@
         <v>11</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3"/>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -1019,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1042,7 +1073,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1050,7 +1081,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1058,7 +1089,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1087,103 +1118,103 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="3" t="s">
-        <v>22</v>
+      <c r="A11" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>23</v>
+      <c r="A12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="4" t="s">
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="5" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>52</v>
+      <c r="B16" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>27</v>
+        <v>60</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B20" s="3" t="b">
         <v>1</v>
@@ -1191,15 +1222,15 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B22" s="3" t="b">
         <v>1</v>
@@ -1207,7 +1238,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B23" s="3" t="b">
         <v>1</v>
@@ -1215,7 +1246,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B24" s="3" t="b">
         <v>1</v>
@@ -1223,7 +1254,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B25" s="3" t="b">
         <v>1</v>
@@ -1231,26 +1262,26 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
